--- a/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/财务费用.xlsx
+++ b/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/财务费用.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>32.39234</v>
-      </c>
-      <c r="C2" t="n">
-        <v>93.44114999999999</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.15644</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.00229</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2.91384</v>
-      </c>
-      <c r="G2" t="n">
-        <v>96.62748000000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>26.79968</v>
-      </c>
-      <c r="I2" t="n">
-        <v>27.99117</v>
-      </c>
-      <c r="J2" t="n">
-        <v>5.30336</v>
-      </c>
-      <c r="K2" t="n">
-        <v>14.08231</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1313.02644</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.5011</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.67179</v>
-      </c>
-      <c r="O2" t="n">
-        <v>48.19875</v>
-      </c>
-      <c r="P2" t="n">
-        <v>56.56294</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>5.94038</v>
-      </c>
-      <c r="R2" t="n">
-        <v>7.87452</v>
-      </c>
-      <c r="S2" t="n">
-        <v>6.39922</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3.71713</v>
-      </c>
-      <c r="U2" t="n">
-        <v>11.7279</v>
-      </c>
-      <c r="V2" t="n">
-        <v>14.73983</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.74003</v>
-      </c>
-      <c r="X2" t="n">
-        <v>31.19113</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>234.96995</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>57.98658</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>52.4753</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>4.9924</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>47.30528</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>49.71421</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>68.17153999999999</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>4.75219</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>25.67029</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>16.95575</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>53.3497</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>4.19539</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>14.66115</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>30.61335</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>22.78075</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>110.92681</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1.70839</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>29.13532</v>
-      </c>
-      <c r="C3" t="n">
-        <v>85.74551</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.22824</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.00048</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.98784</v>
-      </c>
-      <c r="G3" t="n">
-        <v>98.12869999999999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>19.79396</v>
-      </c>
-      <c r="I3" t="n">
-        <v>30.96596</v>
-      </c>
-      <c r="J3" t="n">
-        <v>5.50904</v>
-      </c>
-      <c r="K3" t="n">
-        <v>16.76211</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1342.13504</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.62041</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.23755</v>
-      </c>
-      <c r="O3" t="n">
-        <v>47.87745</v>
-      </c>
-      <c r="P3" t="n">
-        <v>43.29418</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>5.79304</v>
-      </c>
-      <c r="R3" t="n">
-        <v>8.90537</v>
-      </c>
-      <c r="S3" t="n">
-        <v>6.24257</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.65928</v>
-      </c>
-      <c r="U3" t="n">
-        <v>15.07802</v>
-      </c>
-      <c r="V3" t="n">
-        <v>26.69131</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.65309</v>
-      </c>
-      <c r="X3" t="n">
-        <v>35.30753</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>301.58317</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>64.33559</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>55.47108</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>5.54003</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>48.3035</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>25.31879</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>60.54745</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>4.83948</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>35.71403</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>18.29274</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>52.9133</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>4.4197</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>14.21029</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>30.36421</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>20.94368</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>92.4355</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1.72937</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>28.33594</v>
-      </c>
-      <c r="C4" t="n">
-        <v>81.50793</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.04324</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.00021</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.56586</v>
-      </c>
-      <c r="G4" t="n">
-        <v>104.21202</v>
-      </c>
-      <c r="H4" t="n">
-        <v>20.83127</v>
-      </c>
-      <c r="I4" t="n">
-        <v>33.74736</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5.78286</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15.82742</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1423.81298</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.43137</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.18268</v>
-      </c>
-      <c r="O4" t="n">
-        <v>45.94681</v>
-      </c>
-      <c r="P4" t="n">
-        <v>46.23063</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>6.45043</v>
-      </c>
-      <c r="R4" t="n">
-        <v>8.2697</v>
-      </c>
-      <c r="S4" t="n">
-        <v>6.60955</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.90685</v>
-      </c>
-      <c r="U4" t="n">
-        <v>14.1843</v>
-      </c>
-      <c r="V4" t="n">
-        <v>25.58807</v>
-      </c>
-      <c r="W4" t="n">
-        <v>2.57066</v>
-      </c>
-      <c r="X4" t="n">
-        <v>47.90953</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>333.98861</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>75.69828</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>49.43088</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>5.19692</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>53.57274</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>24.51556</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>57.92386</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>6.77576</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>39.5864</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>16.64429</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>51.83857</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>5.30874</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>18.93117</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>31.78101</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>21.85888</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>107.31882</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>1.62109</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
